--- a/GridCSVs/output1.xlsx
+++ b/GridCSVs/output1.xlsx
@@ -14,71 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
-  <si>
-    <t xml:space="preserve"> _x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Invoice Number
-_x000C_ Order Number
-_x000C_ Invoice Date
-_x000C_ Due Date
-_x000C_ Total Due
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t xml:space="preserve"> Hrs/Qty
+_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.00
+_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service
+_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web Design
+This is a sample description...
 _x000C_</t>
   </si>
   <si>
     <t xml:space="preserve"> Rate/Price
-_x000C_ Service
-_x000C_ Hrs/Qty
-_x000C_ $85.00
-_x000C_ Web Design
-This is a sample description...
-_x000C_ 1.00
+_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $85.00
+_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adjust
+_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00%
 _x000C_</t>
   </si>
   <si>
     <t xml:space="preserve"> Sub Total
-Tax
-_x000C_ Total
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Order Number 12345
-$09.5
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adjust
-_x000C_ 0.00%
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sub Total $85.00
-Tax $8.50
-$99.50
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INV-3337
-_x000C_ 12345
-_x000C_ January 25, 2016
-_x000C_ | January 31, 2016
-_x000C_ $93.50
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  
-$85.00
-_x000C_ $8.50
-_x000C_ $93.50 |
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sub Total
-_x000C_ $85.00
 _x000C_</t>
   </si>
 </sst>
@@ -438,13 +409,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -460,11 +431,8 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -472,22 +440,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -495,65 +460,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/GridCSVs/output1.xlsx
+++ b/GridCSVs/output1.xlsx
@@ -16,41 +16,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
-    <t xml:space="preserve"> Hrs/Qty
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.00
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Service
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Web Design
-This is a sample description...
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rate/Price
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $85.00
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adjust
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.00%
-_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sub Total
-_x000C_</t>
+    <t xml:space="preserve"> Hrs/Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web DesignThis is a sample description...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rate/Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $85.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adjust</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sub Total</t>
   </si>
 </sst>
 </file>
@@ -109,12 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,19 +425,19 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -456,19 +445,19 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/GridCSVs/output1.xlsx
+++ b/GridCSVs/output1.xlsx
@@ -14,63 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t xml:space="preserve"> item</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RTX 3080 - GPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RTX 3050 - GPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RTX 3060 - GPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RTX 3070 - GPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HRS/QTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “sl </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 399</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 499</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 099</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Subtotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  USD 899.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  USD 399.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  USD 499.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  USD 599.00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t xml:space="preserve"> Hrs/Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web DesignThis is a sample description...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rate/Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $85.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adjust</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sub Total</t>
   </si>
 </sst>
 </file>
@@ -428,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,16 +429,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -479,76 +449,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/GridCSVs/output1.xlsx
+++ b/GridCSVs/output1.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve"> Web DesignThis is a sample description...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rate/Price</t>
+    <t xml:space="preserve"> RatelPrice</t>
   </si>
   <si>
     <t xml:space="preserve"> $85.00</t>
